--- a/metaData/senegal-2010_vignettes_codebook.xlsx
+++ b/metaData/senegal-2010_vignettes_codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Box Sync\WB Work\WB Github Repo\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Documents\GitHub\SDI-Health\metaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD19737E-F485-4537-8827-B48934E39D40}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3DB2D04E-72A2-4FAA-8557-E9F8919970D1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21143" windowWidth="7485" windowHeight="21143" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2741,9 +2741,6 @@
     <t>skip_eclampsia</t>
   </si>
   <si>
-    <t>Did not do eclampsia vignette</t>
-  </si>
-  <si>
     <t>In Senegal survey, item is "Presence of shivers or sweats"</t>
   </si>
   <si>
@@ -2877,6 +2874,9 @@
   </si>
   <si>
     <t>Did not do malaria+anemia vignette</t>
+  </si>
+  <si>
+    <t>Did not do pre-eclampsia vignette</t>
   </si>
 </sst>
 </file>
@@ -3444,8 +3444,8 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
@@ -3503,7 +3503,7 @@
         <v>875</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D4" s="10"/>
     </row>
@@ -3535,7 +3535,7 @@
         <v>879</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D7" s="10"/>
     </row>
@@ -3547,10 +3547,10 @@
         <v>880</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>928</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>929</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -3605,10 +3605,10 @@
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>937</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>938</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="10"/>
@@ -3621,7 +3621,7 @@
         <v>175</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D15" s="10"/>
     </row>
@@ -3630,10 +3630,10 @@
         <v>887</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>387</v>
@@ -3647,7 +3647,7 @@
         <v>384</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>387</v>
@@ -3658,7 +3658,7 @@
         <v>889</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D18" s="10"/>
     </row>
@@ -3667,10 +3667,10 @@
         <v>890</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>387</v>
@@ -3681,10 +3681,10 @@
         <v>891</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>387</v>
@@ -3695,7 +3695,7 @@
         <v>892</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D21" s="10"/>
     </row>
@@ -3704,7 +3704,7 @@
         <v>893</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D22" s="10"/>
     </row>
@@ -3716,7 +3716,7 @@
         <v>895</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>387</v>
@@ -3736,7 +3736,7 @@
         <v>898</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>899</v>
+        <v>944</v>
       </c>
       <c r="D25" s="10"/>
     </row>
@@ -3748,23 +3748,23 @@
         <v>386</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
+        <v>932</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>933</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>935</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -3861,7 +3861,7 @@
         <v>392</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -3878,7 +3878,7 @@
         <v>392</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -4477,7 +4477,7 @@
         <v>392</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -4503,7 +4503,7 @@
         <v>392</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -4675,13 +4675,13 @@
         <v>108</v>
       </c>
       <c r="C77" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E77" s="18" t="s">
         <v>902</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -4845,7 +4845,7 @@
         <v>392</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -4862,7 +4862,7 @@
         <v>392</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
@@ -6076,7 +6076,7 @@
         <v>392</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -6262,7 +6262,7 @@
         <v>392</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -6590,7 +6590,7 @@
         <v>392</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
@@ -6607,7 +6607,7 @@
         <v>392</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
@@ -6782,13 +6782,13 @@
         <v>108</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>392</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
@@ -7061,7 +7061,7 @@
         <v>392</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
@@ -7741,7 +7741,7 @@
         <v>392</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="34.5" x14ac:dyDescent="0.45">
@@ -7758,7 +7758,7 @@
         <v>392</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -7849,10 +7849,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>550</v>
@@ -7869,13 +7869,13 @@
         <v>108</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>392</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="34.5" x14ac:dyDescent="0.45">
@@ -7984,7 +7984,7 @@
         <v>392</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
@@ -8517,7 +8517,7 @@
         <v>649</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>588</v>
@@ -8590,13 +8590,13 @@
         <v>108</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>392</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -9783,7 +9783,7 @@
         <v>392</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -9800,7 +9800,7 @@
         <v>392</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -10221,13 +10221,13 @@
         <v>861</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>392</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -10363,13 +10363,13 @@
         <v>108</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>392</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -10793,7 +10793,7 @@
         <v>392</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>398</v>
@@ -10801,24 +10801,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="23" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B7" s="23">
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="23" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B8" s="23">
         <v>1</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
